--- a/Tops Data Analytics/Asssignment/Lec Macros 1.1 (1).xlsx
+++ b/Tops Data Analytics/Asssignment/Lec Macros 1.1 (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopan\Downloads\Tops demo\Assignment #1 Question Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopan\Downloads\Tops demo\Tops Data Analytics\Asssignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>Aarav,Patel,50000,30</t>
   </si>
@@ -87,71 +87,137 @@
     <t>Zoya,Mehta,65000,35</t>
   </si>
   <si>
-    <t>Aaradhya,Gupta,50000,30</t>
-  </si>
-  <si>
-    <t>Advik,Patil,60000,35</t>
-  </si>
-  <si>
-    <t>Anika,Sharma,75000,40</t>
-  </si>
-  <si>
-    <t>Aryan,Desai,55000,28</t>
-  </si>
-  <si>
-    <t>Dia,Patel,80000,45</t>
-  </si>
-  <si>
-    <t>Ishan,Singh,65000,33</t>
-  </si>
-  <si>
-    <t>Kavya,Chatterjee,70000,38</t>
-  </si>
-  <si>
-    <t>Mihir,Mishra,60000,32</t>
-  </si>
-  <si>
-    <t>Myra,Chopra,85000,42</t>
-  </si>
-  <si>
-    <t>Navya,Rao,70000,36</t>
-  </si>
-  <si>
-    <t>Parth,Shah,60000,31</t>
-  </si>
-  <si>
-    <t>Prisha,Verma,55000,29</t>
-  </si>
-  <si>
-    <t>Reyansh,Kumar,90000,48</t>
-  </si>
-  <si>
-    <t>Saisha,Reddy,65000,34</t>
-  </si>
-  <si>
-    <t>Shaurya,Gupta,75000,39</t>
-  </si>
-  <si>
-    <t>Shreya,Sharma,70000,37</t>
-  </si>
-  <si>
-    <t>Vihaan,Khan,80000,41</t>
-  </si>
-  <si>
-    <t>Zara,Jha,60000,33</t>
-  </si>
-  <si>
-    <t>Aahana,Banerjee,70000,38</t>
-  </si>
-  <si>
-    <t>Advait,Chopra,65000,35</t>
+    <t>Aaradhya</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>Advik</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>Anika</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Aryan</t>
+  </si>
+  <si>
+    <t>Desai</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Ishan</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Kavya</t>
+  </si>
+  <si>
+    <t>Chatterjee</t>
+  </si>
+  <si>
+    <t>Mihir</t>
+  </si>
+  <si>
+    <t>Mishra</t>
+  </si>
+  <si>
+    <t>Myra</t>
+  </si>
+  <si>
+    <t>Chopra</t>
+  </si>
+  <si>
+    <t>Navya</t>
+  </si>
+  <si>
+    <t>Rao</t>
+  </si>
+  <si>
+    <t>Parth</t>
+  </si>
+  <si>
+    <t>Shah</t>
+  </si>
+  <si>
+    <t>Prisha</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>Reyansh</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Saisha</t>
+  </si>
+  <si>
+    <t>Reddy</t>
+  </si>
+  <si>
+    <t>Shaurya</t>
+  </si>
+  <si>
+    <t>Shreya</t>
+  </si>
+  <si>
+    <t>Vihaan</t>
+  </si>
+  <si>
+    <t>Khan</t>
+  </si>
+  <si>
+    <t>Zara</t>
+  </si>
+  <si>
+    <t>Jha</t>
+  </si>
+  <si>
+    <t>Aahana</t>
+  </si>
+  <si>
+    <t>Banerjee</t>
+  </si>
+  <si>
+    <t>Advait</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Discount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,16 +225,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -176,20 +260,145 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0"/>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -615,118 +824,450 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C2" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>30</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>IF(C2&lt;=50000,"2%",IF(C2&lt;75000,"5%","10%"))</f>
+        <v>2%</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C3" s="1">
+        <v>60000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E21" si="0">IF(C3&lt;=50000,"2%",IF(C3&lt;75000,"5%","10%"))</f>
+        <v>5%</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="C4" s="1">
+        <v>75000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>40</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>10%</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C5" s="1">
+        <v>55000</v>
+      </c>
+      <c r="D5" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5%</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C6" s="1">
+        <v>80000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>10%</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="C7" s="1">
+        <v>65000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5%</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="C8" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5%</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="C9" s="1">
+        <v>60000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>32</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5%</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="C10" s="1">
+        <v>85000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>10%</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C11" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>36</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5%</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>60000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5%</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1">
+        <v>55000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5%</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1">
+        <v>90000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>48</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>10%</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1">
+        <v>65000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>34</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5%</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>75000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>10%</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>37</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5%</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1">
+        <v>80000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>10%</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1">
+        <v>60000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>33</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5%</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1">
+        <v>70000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>38</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5%</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1">
+        <v>65000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>35</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>5%</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="greaterThanOrEqual">
+      <formula>75000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B1 D1:E1">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CB9F5158-E922-4ED7-A29A-EA62BF45AF52}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E21">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>0</formula>
+      <formula>15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CB9F5158-E922-4ED7-A29A-EA62BF45AF52}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>A1:E1</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>